--- a/학습자료/단답형/국어_복습_4일차.xlsx
+++ b/학습자료/단답형/국어_복습_4일차.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.</t>
+          <t>붕우유신, 오륜(五倫)의 하나 친구(親舊) 사이의 도리(道理)는 믿음에 있음</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>장유유서, 오륜(五倫)의 하나. 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음.</t>
+          <t>장유유서, 오륜(五倫)의 하나 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>군신유의, 오륜(五倫)의 하나. 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함.</t>
+          <t>군신유의, 오륜(五倫)의 하나 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.</t>
+          <t>부부유별, 오륜(五倫)의 하나 「남편(男便)과 아내는 분별(分別)이 있어야 한다」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+          <t>부자유친, 오륜(五倫)의 하나 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_4일차.xlsx
+++ b/학습자료/단답형/국어_복습_4일차.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
